--- a/5-Trade_Monitoring/data_gathered/TPSL_database.xlsx
+++ b/5-Trade_Monitoring/data_gathered/TPSL_database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f03220aba1df5fa0/Desktop/Segun/Crypto/Margin_Trading_Algorithm/5-Trade_Monitoring/data_gathered/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_94D46F15E073AD0A7260920B75E435F208CE72BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58D3280B-7346-4CB3-8CB2-A36C04EEE0EE}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_94D46F15E073AD0A7260920B75E435F208CE72BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B0ED111-5342-4F85-8401-6EBF3AA23747}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>trading_pair</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>1h</t>
+  </si>
+  <si>
+    <t>TFP</t>
   </si>
 </sst>
 </file>
@@ -108,9 +111,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Frame0" displayName="Frame0" ref="A1:H2" totalsRowShown="0">
-  <autoFilter ref="A1:H2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Frame0" displayName="Frame0" ref="A1:I2" totalsRowShown="0">
+  <autoFilter ref="A1:I2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="trading_pair"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="strategy"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="interval"/>
@@ -118,6 +121,7 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="STP"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="LSL"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="SSL"/>
+    <tableColumn id="9" xr3:uid="{D60936E5-C369-4EC8-B60D-CB1467F93DCA}" name="TFP"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="date_updated"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -411,18 +415,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="8" width="15.54296875" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,10 +449,13 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -470,7 +477,10 @@
       <c r="G2">
         <v>1.5</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
